--- a/main.xlsx
+++ b/main.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="66">
   <si>
     <t>description</t>
   </si>
@@ -127,39 +127,15 @@
     <t>Closed Won</t>
   </si>
   <si>
-    <t>Sales - Aircraft</t>
-  </si>
-  <si>
-    <t>Sales</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
     <t>Web Page</t>
   </si>
   <si>
     <t>Checked</t>
   </si>
   <si>
-    <t>Active</t>
-  </si>
-  <si>
     <t>Summer</t>
   </si>
   <si>
-    <t>expirationDate</t>
-  </si>
-  <si>
-    <t>status</t>
-  </si>
-  <si>
-    <t>tax</t>
-  </si>
-  <si>
-    <t>shipping and handling</t>
-  </si>
-  <si>
     <t>QuoteTest2</t>
   </si>
   <si>
@@ -197,17 +173,69 @@
   </si>
   <si>
     <t>Product Price</t>
+  </si>
+  <si>
+    <t>Quote Name</t>
+  </si>
+  <si>
+    <t>Quote Expiration Date</t>
+  </si>
+  <si>
+    <t>Quote Status</t>
+  </si>
+  <si>
+    <t>Quote Description</t>
+  </si>
+  <si>
+    <t>Quote Tax</t>
+  </si>
+  <si>
+    <t>Quote Shipping And Handling</t>
+  </si>
+  <si>
+    <t>Price Book Active</t>
+  </si>
+  <si>
+    <t>Premium</t>
+  </si>
+  <si>
+    <t>Promo</t>
+  </si>
+  <si>
+    <t>Standard Price Book</t>
+  </si>
+  <si>
+    <t>ProdTest1</t>
+  </si>
+  <si>
+    <t>ProdTest2</t>
+  </si>
+  <si>
+    <t>FrancoOpportunityTest</t>
+  </si>
+  <si>
+    <t>30/12/2018</t>
+  </si>
+  <si>
+    <t>FrancoDaniel</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -245,7 +273,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -268,60 +296,35 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -629,7 +632,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -728,7 +731,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -743,10 +746,10 @@
   <sheetData>
     <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
@@ -765,7 +768,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -791,7 +794,7 @@
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="4" t="s">
@@ -811,16 +814,25 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="14"/>
+      <c r="A4" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="15"/>
+      <c r="A5" s="13"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C3" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -829,7 +841,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -844,7 +856,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>28</v>
@@ -853,7 +865,7 @@
         <v>29</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>30</v>
@@ -923,17 +935,17 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="B5" s="11">
-        <v>43100</v>
+      <c r="A5" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>64</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>12</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -946,93 +958,118 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="1" max="1" width="20.42578125" customWidth="1"/>
     <col min="2" max="2" width="12.5703125" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
     <col min="5" max="5" width="19.5703125" customWidth="1"/>
-    <col min="7" max="7" width="21" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" customWidth="1"/>
+    <col min="7" max="7" width="27.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="F1" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" s="17">
+        <v>43446</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="F2" s="10">
+        <v>2</v>
+      </c>
+      <c r="G2" s="10">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" s="10">
         <v>1</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="G3" s="10">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="C4" s="11">
+        <v>43293</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="E1" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="F2" s="10">
-        <v>1</v>
-      </c>
-      <c r="G2" s="10">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="C3" s="11">
-        <v>43293</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="F3" s="10">
+      <c r="F4" s="10">
         <v>2</v>
       </c>
-      <c r="G3" s="10">
+      <c r="G4" s="10">
         <v>50</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1041,7 +1078,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D7"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1054,7 +1091,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>21</v>
@@ -1082,42 +1119,34 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B3" s="10">
         <v>101</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D3" s="1" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="B4" s="10">
-        <v>101</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>39</v>
-      </c>
+      <c r="A4" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
       <c r="D4" s="1" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="B5" s="10">
-        <v>101</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>39</v>
-      </c>
+      <c r="A5" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
       <c r="D5" s="1" t="b">
         <v>1</v>
       </c>
@@ -1144,34 +1173,34 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" customWidth="1"/>
-    <col min="2" max="2" width="13" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B2" s="10" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>57</v>
+      <c r="A3" s="5" t="s">
+        <v>60</v>
       </c>
       <c r="B3" s="1" t="b">
         <v>1</v>
@@ -1187,30 +1216,30 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C6"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.5703125" customWidth="1"/>
     <col min="2" max="2" width="17.7109375" customWidth="1"/>
-    <col min="3" max="3" width="17.85546875" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C1" t="s">
-        <v>58</v>
+      <c r="A1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>23</v>
@@ -1221,7 +1250,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>23</v>
@@ -1231,37 +1260,31 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="C4" s="1">
-        <v>20</v>
+      <c r="A4" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" s="5">
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>38</v>
+      <c r="A5" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>62</v>
       </c>
       <c r="C5" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="C6" s="1">
-        <v>20</v>
-      </c>
+      <c r="A6" s="15"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/main.xlsx
+++ b/main.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="630" windowWidth="14970" windowHeight="6600" firstSheet="1" activeTab="6"/>
+    <workbookView xWindow="390" yWindow="630" windowWidth="14970" windowHeight="6600" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Contact" sheetId="9" r:id="rId1"/>
@@ -15,12 +15,12 @@
     <sheet name="Price Book" sheetId="12" r:id="rId6"/>
     <sheet name="Price Book Products" sheetId="13" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="62">
   <si>
     <t>description</t>
   </si>
@@ -28,24 +28,12 @@
     <t>name</t>
   </si>
   <si>
-    <t>web</t>
-  </si>
-  <si>
     <t>phone</t>
   </si>
   <si>
-    <t>sector</t>
-  </si>
-  <si>
-    <t>employees</t>
-  </si>
-  <si>
     <t>Alaska</t>
   </si>
   <si>
-    <t>Customer</t>
-  </si>
-  <si>
     <t>www.higos.com</t>
   </si>
   <si>
@@ -197,6 +185,27 @@
   </si>
   <si>
     <t>Product Price</t>
+  </si>
+  <si>
+    <t>Account Description</t>
+  </si>
+  <si>
+    <t>Account Web</t>
+  </si>
+  <si>
+    <t>Account Phone</t>
+  </si>
+  <si>
+    <t>Account Sector</t>
+  </si>
+  <si>
+    <t>Account Employees</t>
+  </si>
+  <si>
+    <t>Tigo movil</t>
+  </si>
+  <si>
+    <t>Prospect</t>
   </si>
 </sst>
 </file>
@@ -324,7 +333,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -629,7 +638,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -643,7 +652,7 @@
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.5703125" customWidth="1"/>
     <col min="2" max="2" width="17.5703125" customWidth="1"/>
@@ -655,31 +664,31 @@
         <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -727,52 +736,53 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.85546875" customWidth="1"/>
     <col min="2" max="2" width="18.140625" customWidth="1"/>
     <col min="3" max="3" width="16.42578125" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" customWidth="1"/>
-    <col min="7" max="7" width="11.85546875" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" customWidth="1"/>
+    <col min="5" max="5" width="15" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" customWidth="1"/>
+    <col min="7" max="7" width="19.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>2</v>
+        <v>56</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>3</v>
+        <v>57</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>4</v>
+        <v>58</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>5</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>61</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>0</v>
@@ -781,7 +791,7 @@
         <v>7742515</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G2" s="1">
         <v>248</v>
@@ -789,13 +799,13 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>7</v>
+        <v>61</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>0</v>
@@ -804,7 +814,7 @@
         <v>7742518</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G3" s="1">
         <v>2</v>
@@ -821,6 +831,7 @@
     <hyperlink ref="C3" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -832,7 +843,7 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
     <col min="2" max="2" width="17.28515625" customWidth="1"/>
@@ -844,36 +855,36 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B2" s="7">
         <v>43101</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E2" s="1" t="b">
         <v>1</v>
@@ -884,16 +895,16 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B3" s="9">
         <v>43222</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E3" s="1" t="b">
         <v>0</v>
@@ -904,16 +915,16 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B4" s="9">
         <v>43223</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E4" s="1" t="b">
         <v>1</v>
@@ -924,16 +935,16 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B5" s="11">
         <v>43100</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -952,7 +963,7 @@
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
     <col min="2" max="2" width="12.5703125" customWidth="1"/>
@@ -964,42 +975,42 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E1" s="12" t="s">
         <v>0</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F2" s="10">
         <v>1</v>
@@ -1010,19 +1021,19 @@
     </row>
     <row r="3" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C3" s="11">
         <v>43293</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F3" s="10">
         <v>2</v>
@@ -1044,7 +1055,7 @@
       <selection sqref="A1:D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="24.28515625" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
@@ -1054,27 +1065,27 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D2" s="1" t="b">
         <v>1</v>
@@ -1082,13 +1093,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B3" s="10">
         <v>101</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D3" s="1" t="b">
         <v>1</v>
@@ -1096,13 +1107,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B4" s="10">
         <v>101</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D4" s="1" t="b">
         <v>1</v>
@@ -1110,13 +1121,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B5" s="10">
         <v>101</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D5" s="1" t="b">
         <v>1</v>
@@ -1147,7 +1158,7 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.7109375" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
@@ -1155,15 +1166,15 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B2" s="10" t="b">
         <v>1</v>
@@ -1171,7 +1182,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B3" s="1" t="b">
         <v>1</v>
@@ -1186,11 +1197,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.5703125" customWidth="1"/>
     <col min="2" max="2" width="17.7109375" customWidth="1"/>
@@ -1199,21 +1210,21 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C2" s="1">
         <v>50</v>
@@ -1221,10 +1232,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C3" s="1">
         <v>20</v>
@@ -1232,10 +1243,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C4" s="1">
         <v>20</v>
@@ -1243,10 +1254,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C5" s="1">
         <v>20</v>
@@ -1254,10 +1265,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C6" s="1">
         <v>20</v>

--- a/main.xlsx
+++ b/main.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="630" windowWidth="14970" windowHeight="6600" firstSheet="1" activeTab="6"/>
+    <workbookView xWindow="390" yWindow="630" windowWidth="14970" windowHeight="6600" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Contact" sheetId="9" r:id="rId1"/>
@@ -841,7 +841,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1077,7 +1077,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
@@ -1215,7 +1215,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>

--- a/main.xlsx
+++ b/main.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="630" windowWidth="14970" windowHeight="6600" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="390" yWindow="630" windowWidth="14970" windowHeight="6600" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Contact" sheetId="9" r:id="rId1"/>
@@ -15,12 +15,12 @@
     <sheet name="Price Book" sheetId="12" r:id="rId6"/>
     <sheet name="Price Book Products" sheetId="13" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="68">
   <si>
     <t>description</t>
   </si>
@@ -103,18 +103,6 @@
     <t>Homero Simpson</t>
   </si>
   <si>
-    <t>amount</t>
-  </si>
-  <si>
-    <t>closeDate</t>
-  </si>
-  <si>
-    <t>stage</t>
-  </si>
-  <si>
-    <t>budget</t>
-  </si>
-  <si>
     <t>Bart Simpson</t>
   </si>
   <si>
@@ -218,6 +206,24 @@
   </si>
   <si>
     <t>FrancoDaniel</t>
+  </si>
+  <si>
+    <t>Close Date</t>
+  </si>
+  <si>
+    <t>Stage</t>
+  </si>
+  <si>
+    <t>Private</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>false</t>
   </si>
 </sst>
 </file>
@@ -327,7 +333,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -632,7 +638,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -646,7 +652,7 @@
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.5703125" customWidth="1"/>
     <col min="2" max="2" width="17.5703125" customWidth="1"/>
@@ -734,7 +740,7 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.85546875" customWidth="1"/>
     <col min="2" max="2" width="18.140625" customWidth="1"/>
@@ -746,10 +752,10 @@
   <sheetData>
     <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
@@ -815,7 +821,7 @@
     </row>
     <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -840,11 +846,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
     <col min="2" max="2" width="17.28515625" customWidth="1"/>
@@ -856,22 +862,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>29</v>
+        <v>63</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>27</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -887,8 +893,8 @@
       <c r="D2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="1" t="b">
-        <v>1</v>
+      <c r="E2" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="F2" s="1">
         <v>10000</v>
@@ -896,19 +902,19 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B3" s="9">
         <v>43222</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="1" t="b">
-        <v>0</v>
+      <c r="E3" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="F3" s="1">
         <v>5000</v>
@@ -916,19 +922,19 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B4" s="9">
         <v>43223</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="1" t="b">
-        <v>1</v>
+      <c r="E4" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="F4" s="1">
         <v>1000</v>
@@ -936,16 +942,16 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>12</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -964,7 +970,7 @@
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20.42578125" customWidth="1"/>
     <col min="2" max="2" width="12.5703125" customWidth="1"/>
@@ -977,42 +983,42 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B1" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F1" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="G1" s="12" t="s">
         <v>52</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C2" s="17">
         <v>43446</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F2" s="10">
         <v>2</v>
@@ -1023,19 +1029,19 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F3" s="10">
         <v>1</v>
@@ -1046,19 +1052,19 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C4" s="11">
         <v>43293</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F4" s="10">
         <v>2</v>
@@ -1077,11 +1083,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="24.28515625" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
@@ -1091,7 +1097,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>21</v>
@@ -1119,13 +1125,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B3" s="10">
         <v>101</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D3" s="1" t="b">
         <v>1</v>
@@ -1133,7 +1139,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
@@ -1143,7 +1149,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
@@ -1176,7 +1182,7 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19.28515625" customWidth="1"/>
     <col min="2" max="2" width="16.28515625" customWidth="1"/>
@@ -1184,15 +1190,15 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B2" s="10" t="b">
         <v>1</v>
@@ -1200,7 +1206,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B3" s="1" t="b">
         <v>1</v>
@@ -1219,7 +1225,7 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.5703125" customWidth="1"/>
     <col min="2" max="2" width="17.7109375" customWidth="1"/>
@@ -1228,18 +1234,18 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>23</v>
@@ -1250,7 +1256,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>23</v>
@@ -1261,10 +1267,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C4" s="5">
         <v>40</v>
@@ -1272,10 +1278,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C5" s="1">
         <v>30</v>
